--- a/Rent-a-Car Sprint #1 Backlog.xlsx
+++ b/Rent-a-Car Sprint #1 Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Documents\Summer 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Antonio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -616,7 +616,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -693,7 +699,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -738,7 +750,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -783,7 +801,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -828,7 +852,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -873,7 +903,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -918,7 +954,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -963,7 +1005,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1008,7 +1056,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1053,7 +1107,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1098,7 +1158,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1143,7 +1209,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1188,7 +1260,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1233,7 +1311,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1278,7 +1362,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1323,7 +1413,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Connector 27"/>
+        <xdr:cNvPr id="28" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1368,7 +1464,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Connector 28"/>
+        <xdr:cNvPr id="29" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1413,7 +1515,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Connector 29"/>
+        <xdr:cNvPr id="30" name="Straight Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1458,7 +1566,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Connector 30"/>
+        <xdr:cNvPr id="31" name="Straight Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1503,7 +1617,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Connector 31"/>
+        <xdr:cNvPr id="32" name="Straight Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1548,7 +1668,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Connector 32"/>
+        <xdr:cNvPr id="33" name="Straight Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1593,7 +1719,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Connector 33"/>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1638,7 +1770,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Connector 37"/>
+        <xdr:cNvPr id="38" name="Straight Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1683,7 +1821,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Connector 38"/>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1728,7 +1872,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Connector 39"/>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2060,42 +2210,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" customWidth="1"/>
-    <col min="3" max="3" width="96.6640625" customWidth="1"/>
-    <col min="4" max="4" width="60.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" customWidth="1"/>
+    <col min="3" max="3" width="96.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2259,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2182,7 +2334,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2198,7 +2350,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2228,7 +2380,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2244,43 +2396,61 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O10" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>20</v>
       </c>
@@ -2339,7 +2509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
         <v>21</v>
       </c>
@@ -2378,7 +2548,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="33" t="s">
         <v>40</v>
@@ -2407,7 +2577,7 @@
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="33" t="s">
         <v>41</v>
@@ -2436,7 +2606,7 @@
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="33" t="s">
         <v>42</v>
@@ -2463,7 +2633,7 @@
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="33" t="s">
         <v>43</v>
@@ -2490,7 +2660,7 @@
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="B34" s="33" t="s">
         <v>44</v>
@@ -2517,7 +2687,7 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
       <c r="B35" s="33" t="s">
         <v>45</v>
@@ -2544,7 +2714,7 @@
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2565,7 +2735,7 @@
       <c r="R36" s="20"/>
       <c r="S36" s="20"/>
     </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="32">
         <v>19</v>
       </c>
@@ -2602,7 +2772,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="33" t="s">
         <v>48</v>
@@ -2629,7 +2799,7 @@
       <c r="R38" s="33"/>
       <c r="S38" s="33"/>
     </row>
-    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="33" t="s">
         <v>49</v>
@@ -2656,7 +2826,7 @@
       <c r="R39" s="33"/>
       <c r="S39" s="33"/>
     </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="33" t="s">
         <v>50</v>
@@ -2683,7 +2853,7 @@
       <c r="R40" s="33"/>
       <c r="S40" s="33"/>
     </row>
-    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="33" t="s">
         <v>51</v>
@@ -2710,7 +2880,7 @@
       <c r="R41" s="33"/>
       <c r="S41" s="33"/>
     </row>
-    <row r="42" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="33" t="s">
         <v>52</v>
@@ -2737,7 +2907,7 @@
       <c r="R42" s="33"/>
       <c r="S42" s="33"/>
     </row>
-    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -2758,7 +2928,7 @@
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
     </row>
-    <row r="44" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="32">
         <v>20</v>
       </c>
@@ -2793,7 +2963,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="33"/>
       <c r="B45" s="33" t="s">
         <v>57</v>
@@ -2820,7 +2990,7 @@
       <c r="R45" s="33"/>
       <c r="S45" s="33"/>
     </row>
-    <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
       <c r="B46" s="33" t="s">
         <v>58</v>
@@ -2847,7 +3017,7 @@
       <c r="R46" s="33"/>
       <c r="S46" s="33"/>
     </row>
-    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
       <c r="B47" s="33" t="s">
         <v>59</v>
@@ -2874,7 +3044,7 @@
       <c r="R47" s="33"/>
       <c r="S47" s="33"/>
     </row>
-    <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="33" t="s">
         <v>60</v>
@@ -2901,7 +3071,7 @@
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
     </row>
-    <row r="49" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="33" t="s">
         <v>61</v>
@@ -2928,7 +3098,7 @@
       <c r="R49" s="33"/>
       <c r="S49" s="33"/>
     </row>
-    <row r="50" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -2949,7 +3119,7 @@
       <c r="R50" s="20"/>
       <c r="S50" s="20"/>
     </row>
-    <row r="51" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>30</v>
       </c>
@@ -2972,7 +3142,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
     </row>
-    <row r="52" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>31</v>
       </c>
@@ -2995,7 +3165,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>32</v>
       </c>
@@ -3018,7 +3188,7 @@
       <c r="R53" s="23"/>
       <c r="S53" s="23"/>
     </row>
-    <row r="54" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G54" s="11" t="s">
         <v>33</v>
       </c>
@@ -3053,7 +3223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -3074,7 +3244,7 @@
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
     </row>
-    <row r="56" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>62</v>
       </c>
@@ -3096,7 +3266,7 @@
       <c r="R56" s="20"/>
       <c r="S56" s="20"/>
     </row>
-    <row r="57" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>14</v>
       </c>
@@ -3118,7 +3288,7 @@
       <c r="R57" s="20"/>
       <c r="S57" s="20"/>
     </row>
-    <row r="58" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>64</v>
       </c>
@@ -3141,7 +3311,7 @@
       <c r="R58" s="20"/>
       <c r="S58" s="20"/>
     </row>
-    <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>64</v>
       </c>
@@ -3164,7 +3334,7 @@
       <c r="R59" s="20"/>
       <c r="S59" s="20"/>
     </row>
-    <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>65</v>
       </c>
@@ -3187,7 +3357,7 @@
       <c r="R60" s="20"/>
       <c r="S60" s="20"/>
     </row>
-    <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -3208,7 +3378,7 @@
       <c r="R61" s="20"/>
       <c r="S61" s="20"/>
     </row>
-    <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -3229,7 +3399,7 @@
       <c r="R62" s="20"/>
       <c r="S62" s="20"/>
     </row>
-    <row r="63" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>15</v>
       </c>
@@ -3252,7 +3422,7 @@
       <c r="R63" s="20"/>
       <c r="S63" s="20"/>
     </row>
-    <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>64</v>
       </c>
@@ -3262,23 +3432,23 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="29"/>
     </row>
-    <row r="68" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
     </row>
-    <row r="69" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>16</v>
       </c>
@@ -3301,7 +3471,7 @@
       <c r="R69" s="20"/>
       <c r="S69" s="20"/>
     </row>
-    <row r="70" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
         <v>64</v>
       </c>
@@ -3324,7 +3494,7 @@
       <c r="R70" s="20"/>
       <c r="S70" s="20"/>
     </row>
-    <row r="71" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>64</v>
       </c>
@@ -3347,7 +3517,7 @@
       <c r="R71" s="20"/>
       <c r="S71" s="20"/>
     </row>
-    <row r="72" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>65</v>
       </c>
@@ -3370,7 +3540,7 @@
       <c r="R72" s="20"/>
       <c r="S72" s="20"/>
     </row>
-    <row r="73" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="29"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -3391,7 +3561,7 @@
       <c r="R73" s="20"/>
       <c r="S73" s="20"/>
     </row>
-    <row r="74" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="29"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -3412,7 +3582,7 @@
       <c r="R74" s="20"/>
       <c r="S74" s="20"/>
     </row>
-    <row r="75" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>17</v>
       </c>
@@ -3435,7 +3605,7 @@
       <c r="R75" s="20"/>
       <c r="S75" s="20"/>
     </row>
-    <row r="76" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
         <v>64</v>
       </c>
@@ -3458,7 +3628,7 @@
       <c r="R76" s="20"/>
       <c r="S76" s="20"/>
     </row>
-    <row r="77" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>64</v>
       </c>
@@ -3481,7 +3651,7 @@
       <c r="R77" s="20"/>
       <c r="S77" s="20"/>
     </row>
-    <row r="78" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
         <v>65</v>
       </c>
@@ -3504,7 +3674,7 @@
       <c r="R78" s="20"/>
       <c r="S78" s="20"/>
     </row>
-    <row r="79" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="29"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -3525,7 +3695,7 @@
       <c r="R79" s="20"/>
       <c r="S79" s="20"/>
     </row>
-    <row r="80" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="29"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -3546,7 +3716,7 @@
       <c r="R80" s="20"/>
       <c r="S80" s="20"/>
     </row>
-    <row r="81" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="29"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -3567,61 +3737,61 @@
       <c r="R81" s="20"/>
       <c r="S81" s="20"/>
     </row>
-    <row r="82" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="29"/>
     </row>
   </sheetData>

--- a/Rent-a-Car Sprint #1 Backlog.xlsx
+++ b/Rent-a-Car Sprint #1 Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Antonio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Documents\Summer 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>Rent-a-Car - Sprint 1</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Feature Burndown - Based on estimated hours remaining</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
@@ -185,16 +182,85 @@
     <t>Allow input for the customer's email address</t>
   </si>
   <si>
-    <t>Get a customer's first and last name, age, phone number, and email</t>
-  </si>
-  <si>
-    <t>As a customer storage system, I want to receive a customer's information so that car may be rented.</t>
-  </si>
-  <si>
     <t>Requirement</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>(name)</t>
+  </si>
+  <si>
+    <t>When I enter the customer's information, the car should be rented.</t>
+  </si>
+  <si>
+    <t>When I add a car to the inventory, all its information is recorded.</t>
+  </si>
+  <si>
+    <t>When the customer's information is received, the car will be rented.</t>
+  </si>
+  <si>
+    <t>[Burndown chart goes here and shows hours and story points]</t>
+  </si>
+  <si>
+    <t>(planned hours</t>
+  </si>
+  <si>
+    <t>for each day</t>
+  </si>
+  <si>
+    <t>and task)</t>
+  </si>
+  <si>
+    <t>Input the customer's first name</t>
+  </si>
+  <si>
+    <t>Input the customer's last name</t>
+  </si>
+  <si>
+    <t>Input the customer's phone number</t>
+  </si>
+  <si>
+    <t>Input the customer's email address</t>
+  </si>
+  <si>
+    <t>Input or choose the customer's age</t>
+  </si>
+  <si>
+    <t>Give the car's brand a value and store it</t>
+  </si>
+  <si>
+    <t>Give the car's model a value and store it</t>
+  </si>
+  <si>
+    <t>Give the car's color a value and store it</t>
+  </si>
+  <si>
+    <t>Give the car's year a value and store it</t>
+  </si>
+  <si>
+    <t>Give the car's availability a value and store it</t>
+  </si>
+  <si>
+    <t>Give the car's daily price a value and store it</t>
+  </si>
+  <si>
+    <t>Store the customer's first name</t>
+  </si>
+  <si>
+    <t>Store the customer's last name</t>
+  </si>
+  <si>
+    <t>Store the customer's age</t>
+  </si>
+  <si>
+    <t>Store the customer's phone number</t>
+  </si>
+  <si>
+    <t>Store the customer's email address</t>
+  </si>
+  <si>
+    <t>Get customer's first name and last name, age, phone number, and email</t>
   </si>
   <si>
     <t>Record the customer's first name</t>
@@ -212,91 +278,10 @@
     <t>Record the customer's email address</t>
   </si>
   <si>
-    <t>Issues</t>
-  </si>
-  <si>
-    <t>(name)</t>
-  </si>
-  <si>
-    <t>(issue)</t>
-  </si>
-  <si>
-    <t>(…)</t>
-  </si>
-  <si>
-    <t>When I enter the customer's information, the car should be rented.</t>
-  </si>
-  <si>
-    <t>When I add a car to the inventory, all its information is recorded.</t>
-  </si>
-  <si>
-    <t>When the customer's information is received, the car will be rented.</t>
-  </si>
-  <si>
-    <t>[Burndown chart goes here and shows hours and story points]</t>
-  </si>
-  <si>
-    <t>(planned hours</t>
-  </si>
-  <si>
-    <t>for each day</t>
-  </si>
-  <si>
-    <t>and task)</t>
-  </si>
-  <si>
-    <t>Input the customer's first name</t>
-  </si>
-  <si>
-    <t>Input the customer's last name</t>
-  </si>
-  <si>
-    <t>Input the customer's phone number</t>
-  </si>
-  <si>
-    <t>Input the customer's email address</t>
-  </si>
-  <si>
-    <t>Input or choose the customer's age</t>
-  </si>
-  <si>
-    <t>Give the car's brand a value and store it</t>
-  </si>
-  <si>
-    <t>Give the car's model a value and store it</t>
-  </si>
-  <si>
-    <t>Give the car's color a value and store it</t>
-  </si>
-  <si>
-    <t>Give the car's year a value and store it</t>
-  </si>
-  <si>
-    <t>Give the car's availability a value and store it</t>
-  </si>
-  <si>
-    <t>Give the car's daily price a value and store it</t>
-  </si>
-  <si>
-    <t>Store the customer's first name</t>
-  </si>
-  <si>
-    <t>Store the customer's last name</t>
-  </si>
-  <si>
-    <t>Store the customer's age</t>
-  </si>
-  <si>
-    <t>Store the customer's phone number</t>
-  </si>
-  <si>
-    <t>Store the customer's email address</t>
-  </si>
-  <si>
-    <t>(expected detail)</t>
-  </si>
-  <si>
-    <t>(any scale)</t>
+    <t>As a customer storage system, I want to receive a customer's information so that the car may be rented.</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -493,7 +478,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -578,6 +563,18 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -616,13 +613,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -699,13 +690,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -750,13 +735,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -801,13 +780,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -852,13 +825,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -903,13 +870,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -954,13 +915,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1005,13 +960,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Connector 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1056,13 +1005,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1107,13 +1050,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1158,13 +1095,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1209,13 +1140,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Connector 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1260,13 +1185,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Connector 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1311,13 +1230,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Connector 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1362,13 +1275,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Connector 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="Straight Connector 26"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1413,13 +1320,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Connector 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="Straight Connector 27"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1464,13 +1365,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1515,13 +1410,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Connector 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1566,13 +1455,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Connector 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1617,13 +1500,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Connector 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1668,13 +1545,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Connector 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="33" name="Straight Connector 32"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1719,13 +1590,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Connector 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1770,13 +1635,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Connector 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1821,13 +1680,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1872,19 +1725,958 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Connector 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9136380"/>
           <a:ext cx="29862780" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Connector 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6370320"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6560820"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6758940"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6957060"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Connector 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7155180"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7353300"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7551420"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7947660"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8145780"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Connector 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8343900"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8542020"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Connector 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8740140"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8938260"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9334500"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9532620"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Connector 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9730740"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9928860"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Connector 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10126980"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Connector 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10325100"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Connector 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10721340"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Connector 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10919460"/>
+          <a:ext cx="30396180" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2210,44 +3002,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" customWidth="1"/>
-    <col min="3" max="3" width="96.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" customWidth="1"/>
+    <col min="3" max="3" width="96.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2259,7 +3049,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -2283,13 +3073,13 @@
         <v>4</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>8</v>
@@ -2298,7 +3088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2312,29 +3102,29 @@
         <v>11</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="N5" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="O5" s="18" t="s">
         <v>12</v>
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2350,7 +3140,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2375,12 +3165,16 @@
       <c r="L7" s="1">
         <v>4</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1">
+        <v>14</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2396,7 +3190,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2430,27 +3224,27 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O10" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>20</v>
       </c>
@@ -2509,30 +3303,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="32">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="31" t="s">
-        <v>89</v>
+      <c r="F29" s="32">
+        <v>2</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
@@ -2543,27 +3337,29 @@
       <c r="O29" s="31"/>
       <c r="P29" s="31"/>
       <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
+      <c r="R29" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="S29" s="31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="33"/>
       <c r="B30" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D30" s="33"/>
-      <c r="E30" s="33" t="s">
-        <v>55</v>
+      <c r="E30" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="35" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
@@ -2577,22 +3373,22 @@
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="33"/>
       <c r="B31" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="33" t="s">
-        <v>55</v>
+      <c r="E31" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="35" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -2606,17 +3402,17 @@
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="33"/>
       <c r="B32" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D32" s="33"/>
-      <c r="E32" s="33" t="s">
-        <v>55</v>
+      <c r="E32" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -2633,17 +3429,17 @@
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D33" s="33"/>
-      <c r="E33" s="33" t="s">
-        <v>55</v>
+      <c r="E33" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -2660,17 +3456,17 @@
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="33"/>
       <c r="B34" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D34" s="33"/>
-      <c r="E34" s="33" t="s">
-        <v>55</v>
+      <c r="E34" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -2687,17 +3483,17 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="33"/>
       <c r="B35" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D35" s="33"/>
-      <c r="E35" s="33" t="s">
-        <v>55</v>
+      <c r="E35" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -2714,7 +3510,7 @@
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2735,27 +3531,27 @@
       <c r="R36" s="20"/>
       <c r="S36" s="20"/>
     </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="32">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B37" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>47</v>
-      </c>
       <c r="D37" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="31" t="s">
-        <v>90</v>
+      <c r="F37" s="32">
+        <v>2</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
@@ -2767,22 +3563,24 @@
       <c r="O37" s="31"/>
       <c r="P37" s="31"/>
       <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
+      <c r="R37" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="S37" s="31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="33"/>
       <c r="B38" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D38" s="33"/>
-      <c r="E38" s="33" t="s">
-        <v>55</v>
+      <c r="E38" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -2799,17 +3597,17 @@
       <c r="R38" s="33"/>
       <c r="S38" s="33"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="33"/>
       <c r="B39" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D39" s="33"/>
-      <c r="E39" s="33" t="s">
-        <v>55</v>
+      <c r="E39" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -2826,17 +3624,17 @@
       <c r="R39" s="33"/>
       <c r="S39" s="33"/>
     </row>
-    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="33"/>
       <c r="B40" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D40" s="33"/>
-      <c r="E40" s="33" t="s">
-        <v>55</v>
+      <c r="E40" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -2853,17 +3651,17 @@
       <c r="R40" s="33"/>
       <c r="S40" s="33"/>
     </row>
-    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="33"/>
       <c r="B41" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D41" s="33"/>
-      <c r="E41" s="33" t="s">
-        <v>55</v>
+      <c r="E41" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -2880,17 +3678,17 @@
       <c r="R41" s="33"/>
       <c r="S41" s="33"/>
     </row>
-    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="33"/>
       <c r="B42" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="36" t="s">
         <v>52</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33" t="s">
-        <v>55</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -2907,7 +3705,7 @@
       <c r="R42" s="33"/>
       <c r="S42" s="33"/>
     </row>
-    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -2928,25 +3726,27 @@
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
     </row>
-    <row r="44" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="32">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C44" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="32">
+        <v>2</v>
+      </c>
+      <c r="G44" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31" t="s">
-        <v>63</v>
       </c>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
@@ -2958,22 +3758,24 @@
       <c r="O44" s="31"/>
       <c r="P44" s="31"/>
       <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
+      <c r="R44" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="S44" s="31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="33"/>
       <c r="B45" s="33" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D45" s="33"/>
-      <c r="E45" s="33" t="s">
-        <v>55</v>
+      <c r="E45" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -2990,17 +3792,17 @@
       <c r="R45" s="33"/>
       <c r="S45" s="33"/>
     </row>
-    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="33"/>
       <c r="B46" s="33" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D46" s="33"/>
-      <c r="E46" s="33" t="s">
-        <v>55</v>
+      <c r="E46" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -3017,17 +3819,17 @@
       <c r="R46" s="33"/>
       <c r="S46" s="33"/>
     </row>
-    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="33"/>
       <c r="B47" s="33" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D47" s="33"/>
-      <c r="E47" s="33" t="s">
-        <v>55</v>
+      <c r="E47" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -3044,17 +3846,17 @@
       <c r="R47" s="33"/>
       <c r="S47" s="33"/>
     </row>
-    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="33"/>
       <c r="B48" s="33" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D48" s="33"/>
-      <c r="E48" s="33" t="s">
-        <v>55</v>
+      <c r="E48" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -3071,17 +3873,17 @@
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
     </row>
-    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="33"/>
       <c r="B49" s="33" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D49" s="33"/>
-      <c r="E49" s="33" t="s">
-        <v>55</v>
+      <c r="E49" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -3098,7 +3900,7 @@
       <c r="R49" s="33"/>
       <c r="S49" s="33"/>
     </row>
-    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -3119,7 +3921,7 @@
       <c r="R50" s="20"/>
       <c r="S50" s="20"/>
     </row>
-    <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>30</v>
       </c>
@@ -3129,20 +3931,20 @@
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
     </row>
-    <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
         <v>31</v>
       </c>
@@ -3152,20 +3954,20 @@
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>32</v>
       </c>
@@ -3175,20 +3977,40 @@
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
+      <c r="H53" s="39">
+        <v>6</v>
+      </c>
+      <c r="I53" s="39">
+        <v>6</v>
+      </c>
+      <c r="J53" s="39">
+        <v>6</v>
+      </c>
+      <c r="K53" s="39">
+        <v>6</v>
+      </c>
+      <c r="L53" s="39">
+        <v>6</v>
+      </c>
+      <c r="M53" s="39">
+        <v>6</v>
+      </c>
+      <c r="N53" s="39">
+        <v>4</v>
+      </c>
+      <c r="O53" s="39">
+        <v>2</v>
+      </c>
+      <c r="P53" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="39">
+        <v>0</v>
+      </c>
       <c r="R53" s="23"/>
       <c r="S53" s="23"/>
     </row>
-    <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G54" s="11" t="s">
         <v>33</v>
       </c>
@@ -3223,7 +4045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -3244,9 +4066,9 @@
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
     </row>
-    <row r="56" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -3266,7 +4088,7 @@
       <c r="R56" s="20"/>
       <c r="S56" s="20"/>
     </row>
-    <row r="57" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
         <v>14</v>
       </c>
@@ -3288,10 +4110,8 @@
       <c r="R57" s="20"/>
       <c r="S57" s="20"/>
     </row>
-    <row r="58" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
-        <v>64</v>
-      </c>
+    <row r="58" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="29"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -3311,10 +4131,8 @@
       <c r="R58" s="20"/>
       <c r="S58" s="20"/>
     </row>
-    <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
-        <v>64</v>
-      </c>
+    <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="29"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
@@ -3334,10 +4152,8 @@
       <c r="R59" s="20"/>
       <c r="S59" s="20"/>
     </row>
-    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
-        <v>65</v>
-      </c>
+    <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="29"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -3357,7 +4173,7 @@
       <c r="R60" s="20"/>
       <c r="S60" s="20"/>
     </row>
-    <row r="61" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -3378,7 +4194,7 @@
       <c r="R61" s="20"/>
       <c r="S61" s="20"/>
     </row>
-    <row r="62" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -3399,7 +4215,7 @@
       <c r="R62" s="20"/>
       <c r="S62" s="20"/>
     </row>
-    <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="s">
         <v>15</v>
       </c>
@@ -3422,33 +4238,27 @@
       <c r="R63" s="20"/>
       <c r="S63" s="20"/>
     </row>
-    <row r="64" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
-        <v>64</v>
-      </c>
+    <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="29"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="29"/>
+    </row>
+    <row r="66" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="29"/>
+    </row>
+    <row r="67" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
     </row>
-    <row r="68" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
     </row>
-    <row r="69" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="30" t="s">
         <v>16</v>
       </c>
@@ -3471,10 +4281,8 @@
       <c r="R69" s="20"/>
       <c r="S69" s="20"/>
     </row>
-    <row r="70" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
-        <v>64</v>
-      </c>
+    <row r="70" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="29"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -3494,10 +4302,8 @@
       <c r="R70" s="20"/>
       <c r="S70" s="20"/>
     </row>
-    <row r="71" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
-        <v>64</v>
-      </c>
+    <row r="71" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="29"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -3517,10 +4323,8 @@
       <c r="R71" s="20"/>
       <c r="S71" s="20"/>
     </row>
-    <row r="72" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
-        <v>65</v>
-      </c>
+    <row r="72" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="29"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -3540,7 +4344,7 @@
       <c r="R72" s="20"/>
       <c r="S72" s="20"/>
     </row>
-    <row r="73" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -3561,7 +4365,7 @@
       <c r="R73" s="20"/>
       <c r="S73" s="20"/>
     </row>
-    <row r="74" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -3582,7 +4386,7 @@
       <c r="R74" s="20"/>
       <c r="S74" s="20"/>
     </row>
-    <row r="75" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="30" t="s">
         <v>17</v>
       </c>
@@ -3605,10 +4409,8 @@
       <c r="R75" s="20"/>
       <c r="S75" s="20"/>
     </row>
-    <row r="76" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
-        <v>64</v>
-      </c>
+    <row r="76" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="29"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -3628,10 +4430,8 @@
       <c r="R76" s="20"/>
       <c r="S76" s="20"/>
     </row>
-    <row r="77" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="29" t="s">
-        <v>64</v>
-      </c>
+    <row r="77" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="29"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -3651,10 +4451,8 @@
       <c r="R77" s="20"/>
       <c r="S77" s="20"/>
     </row>
-    <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
-        <v>65</v>
-      </c>
+    <row r="78" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="29"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -3674,7 +4472,7 @@
       <c r="R78" s="20"/>
       <c r="S78" s="20"/>
     </row>
-    <row r="79" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -3695,7 +4493,7 @@
       <c r="R79" s="20"/>
       <c r="S79" s="20"/>
     </row>
-    <row r="80" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -3716,7 +4514,7 @@
       <c r="R80" s="20"/>
       <c r="S80" s="20"/>
     </row>
-    <row r="81" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -3737,61 +4535,61 @@
       <c r="R81" s="20"/>
       <c r="S81" s="20"/>
     </row>
-    <row r="82" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
     </row>
   </sheetData>

--- a/Rent-a-Car Sprint #1 Backlog.xlsx
+++ b/Rent-a-Car Sprint #1 Backlog.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Documents\Summer 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22300" windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -287,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,7 +471,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3002,42 +3008,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="62.83203125" customWidth="1"/>
     <col min="3" max="3" width="96.6640625" customWidth="1"/>
-    <col min="4" max="4" width="60.44140625" customWidth="1"/>
+    <col min="4" max="4" width="60.5" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3049,7 +3057,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -3088,7 +3096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -3124,23 +3132,43 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3174,7 +3202,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3190,7 +3218,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3224,27 +3252,27 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O10" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>20</v>
       </c>
@@ -3303,7 +3331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="32">
         <v>23</v>
       </c>
@@ -3344,7 +3372,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="33" t="s">
         <v>39</v>
@@ -3373,7 +3401,7 @@
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="33" t="s">
         <v>40</v>
@@ -3402,7 +3430,7 @@
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="33" t="s">
         <v>41</v>
@@ -3429,7 +3457,7 @@
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="33" t="s">
         <v>42</v>
@@ -3456,7 +3484,7 @@
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="33" t="s">
         <v>43</v>
@@ -3483,7 +3511,7 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="33" t="s">
         <v>44</v>
@@ -3510,7 +3538,7 @@
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -3531,7 +3559,7 @@
       <c r="R36" s="20"/>
       <c r="S36" s="20"/>
     </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="32">
         <v>21</v>
       </c>
@@ -3570,7 +3598,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="33" t="s">
         <v>47</v>
@@ -3597,7 +3625,7 @@
       <c r="R38" s="33"/>
       <c r="S38" s="33"/>
     </row>
-    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="33" t="s">
         <v>48</v>
@@ -3624,7 +3652,7 @@
       <c r="R39" s="33"/>
       <c r="S39" s="33"/>
     </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="33" t="s">
         <v>49</v>
@@ -3651,7 +3679,7 @@
       <c r="R40" s="33"/>
       <c r="S40" s="33"/>
     </row>
-    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="33" t="s">
         <v>50</v>
@@ -3678,7 +3706,7 @@
       <c r="R41" s="33"/>
       <c r="S41" s="33"/>
     </row>
-    <row r="42" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="33" t="s">
         <v>51</v>
@@ -3705,7 +3733,7 @@
       <c r="R42" s="33"/>
       <c r="S42" s="33"/>
     </row>
-    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -3726,7 +3754,7 @@
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
     </row>
-    <row r="44" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="32">
         <v>22</v>
       </c>
@@ -3765,7 +3793,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="33" t="s">
         <v>79</v>
@@ -3792,7 +3820,7 @@
       <c r="R45" s="33"/>
       <c r="S45" s="33"/>
     </row>
-    <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="33" t="s">
         <v>80</v>
@@ -3819,7 +3847,7 @@
       <c r="R46" s="33"/>
       <c r="S46" s="33"/>
     </row>
-    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="33" t="s">
         <v>81</v>
@@ -3846,7 +3874,7 @@
       <c r="R47" s="33"/>
       <c r="S47" s="33"/>
     </row>
-    <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="33" t="s">
         <v>82</v>
@@ -3873,7 +3901,7 @@
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
     </row>
-    <row r="49" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="33" t="s">
         <v>83</v>
@@ -3900,7 +3928,7 @@
       <c r="R49" s="33"/>
       <c r="S49" s="33"/>
     </row>
-    <row r="50" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -3921,7 +3949,7 @@
       <c r="R50" s="20"/>
       <c r="S50" s="20"/>
     </row>
-    <row r="51" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>30</v>
       </c>
@@ -3944,7 +3972,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
     </row>
-    <row r="52" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>31</v>
       </c>
@@ -3967,7 +3995,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
         <v>32</v>
       </c>
@@ -4010,7 +4038,7 @@
       <c r="R53" s="23"/>
       <c r="S53" s="23"/>
     </row>
-    <row r="54" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="G54" s="11" t="s">
         <v>33</v>
       </c>
@@ -4045,7 +4073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -4066,7 +4094,7 @@
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
     </row>
-    <row r="56" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>53</v>
       </c>
@@ -4088,7 +4116,7 @@
       <c r="R56" s="20"/>
       <c r="S56" s="20"/>
     </row>
-    <row r="57" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="30" t="s">
         <v>14</v>
       </c>
@@ -4110,7 +4138,7 @@
       <c r="R57" s="20"/>
       <c r="S57" s="20"/>
     </row>
-    <row r="58" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="29"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -4131,7 +4159,7 @@
       <c r="R58" s="20"/>
       <c r="S58" s="20"/>
     </row>
-    <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="29"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -4152,7 +4180,7 @@
       <c r="R59" s="20"/>
       <c r="S59" s="20"/>
     </row>
-    <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="29"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -4173,7 +4201,7 @@
       <c r="R60" s="20"/>
       <c r="S60" s="20"/>
     </row>
-    <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="29"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -4194,7 +4222,7 @@
       <c r="R61" s="20"/>
       <c r="S61" s="20"/>
     </row>
-    <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="29"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -4215,7 +4243,7 @@
       <c r="R62" s="20"/>
       <c r="S62" s="20"/>
     </row>
-    <row r="63" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="30" t="s">
         <v>15</v>
       </c>
@@ -4238,7 +4266,7 @@
       <c r="R63" s="20"/>
       <c r="S63" s="20"/>
     </row>
-    <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="29"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -4246,19 +4274,19 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="29"/>
     </row>
-    <row r="66" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="29"/>
     </row>
-    <row r="67" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="29"/>
     </row>
-    <row r="68" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="29"/>
     </row>
-    <row r="69" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="30" t="s">
         <v>16</v>
       </c>
@@ -4281,7 +4309,7 @@
       <c r="R69" s="20"/>
       <c r="S69" s="20"/>
     </row>
-    <row r="70" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="29"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -4302,7 +4330,7 @@
       <c r="R70" s="20"/>
       <c r="S70" s="20"/>
     </row>
-    <row r="71" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="29"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -4323,7 +4351,7 @@
       <c r="R71" s="20"/>
       <c r="S71" s="20"/>
     </row>
-    <row r="72" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="29"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -4344,7 +4372,7 @@
       <c r="R72" s="20"/>
       <c r="S72" s="20"/>
     </row>
-    <row r="73" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="29"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -4365,7 +4393,7 @@
       <c r="R73" s="20"/>
       <c r="S73" s="20"/>
     </row>
-    <row r="74" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="29"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -4386,7 +4414,7 @@
       <c r="R74" s="20"/>
       <c r="S74" s="20"/>
     </row>
-    <row r="75" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="30" t="s">
         <v>17</v>
       </c>
@@ -4409,7 +4437,7 @@
       <c r="R75" s="20"/>
       <c r="S75" s="20"/>
     </row>
-    <row r="76" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="29"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -4430,7 +4458,7 @@
       <c r="R76" s="20"/>
       <c r="S76" s="20"/>
     </row>
-    <row r="77" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="29"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -4451,7 +4479,7 @@
       <c r="R77" s="20"/>
       <c r="S77" s="20"/>
     </row>
-    <row r="78" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="29"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -4472,7 +4500,7 @@
       <c r="R78" s="20"/>
       <c r="S78" s="20"/>
     </row>
-    <row r="79" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="29"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -4493,7 +4521,7 @@
       <c r="R79" s="20"/>
       <c r="S79" s="20"/>
     </row>
-    <row r="80" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="29"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -4514,7 +4542,7 @@
       <c r="R80" s="20"/>
       <c r="S80" s="20"/>
     </row>
-    <row r="81" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="29"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -4535,61 +4563,61 @@
       <c r="R81" s="20"/>
       <c r="S81" s="20"/>
     </row>
-    <row r="82" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="29"/>
     </row>
   </sheetData>

--- a/Rent-a-Car Sprint #1 Backlog.xlsx
+++ b/Rent-a-Car Sprint #1 Backlog.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Documents\Summer 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22300" windowHeight="17340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
-  <si>
-    <t>Rent-a-Car - Sprint 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>Sprint Goal</t>
   </si>
@@ -80,9 +71,6 @@
     <t>Brandon Gray</t>
   </si>
   <si>
-    <t>James Jeffery</t>
-  </si>
-  <si>
     <t>Tony Jimogaon</t>
   </si>
   <si>
@@ -194,9 +182,6 @@
     <t>Issues</t>
   </si>
   <si>
-    <t>(name)</t>
-  </si>
-  <si>
     <t>When I enter the customer's information, the car should be rented.</t>
   </si>
   <si>
@@ -206,18 +191,6 @@
     <t>When the customer's information is received, the car will be rented.</t>
   </si>
   <si>
-    <t>[Burndown chart goes here and shows hours and story points]</t>
-  </si>
-  <si>
-    <t>(planned hours</t>
-  </si>
-  <si>
-    <t>for each day</t>
-  </si>
-  <si>
-    <t>and task)</t>
-  </si>
-  <si>
     <t>Input the customer's first name</t>
   </si>
   <si>
@@ -288,13 +261,67 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>James Jeffrey</t>
+  </si>
+  <si>
+    <t>When I add a car to the inventory, its brand is recorded.</t>
+  </si>
+  <si>
+    <t>When I add a car to the inventory, its model is recorded.</t>
+  </si>
+  <si>
+    <t>When I add a car to the inventory, its color is recorded.</t>
+  </si>
+  <si>
+    <t>When I enter the customer's information, the first name is recorded.</t>
+  </si>
+  <si>
+    <t>When I enter the customer's information, the last name is recorded.</t>
+  </si>
+  <si>
+    <t>When I enter for the information, for customer's age is recorded.</t>
+  </si>
+  <si>
+    <t>When I enter the customer's information, the phone number is recorded.</t>
+  </si>
+  <si>
+    <t>When I enter the customer's information, the email address is recorded.</t>
+  </si>
+  <si>
+    <t>When the customer's information is received, store their first name.</t>
+  </si>
+  <si>
+    <t>When the customer's information is received, store their last name.</t>
+  </si>
+  <si>
+    <t>When the the information is received, store their customer's age.</t>
+  </si>
+  <si>
+    <t>When the customer's information is received, store their phone number.</t>
+  </si>
+  <si>
+    <t>When the customer's information is received, store their email address.</t>
+  </si>
+  <si>
+    <t>When I add a car to the inventory, its year is recorded.</t>
+  </si>
+  <si>
+    <t>When I add a car to the inventory, its daily price is recorded.</t>
+  </si>
+  <si>
+    <t>When I add a car to the inventory, its availability is recorded.</t>
+  </si>
+  <si>
+    <t>Rent-a-Car - Sprint 1 Backlog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +418,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -471,7 +510,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -484,7 +523,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -563,9 +602,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,6 +615,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,6 +642,1202 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Burndown:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Hours &amp; Points Remaining</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Scheduled Hrs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$H$52:$Q$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C324-48F0-90C6-3E71FED9245F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Story Points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$H$53:$Q$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C324-48F0-90C6-3E71FED9245F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Planned</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$H$56:$Q$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C324-48F0-90C6-3E71FED9245F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="848153312"/>
+        <c:axId val="848151232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="848153312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> of Sprint</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848151232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="848151232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Scheduled</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Hrs and Story Points</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848153312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -746,8 +1984,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11269980"/>
-          <a:ext cx="30540960" cy="17803"/>
+          <a:off x="0" y="11315700"/>
+          <a:ext cx="30457140" cy="17803"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2683,6 +3921,126 @@
         <a:xfrm>
           <a:off x="0" y="10919460"/>
           <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10523220"/>
+          <a:ext cx="30396180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2705100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Connector 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11117580"/>
+          <a:ext cx="30449520" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3008,60 +4366,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="62.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" customWidth="1"/>
     <col min="3" max="3" width="96.6640625" customWidth="1"/>
-    <col min="4" max="4" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="60.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" customWidth="1"/>
-    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3075,7 +4434,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>4</v>
@@ -3090,149 +4449,180 @@
         <v>7</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="E6" s="1" t="s">
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <f>SUM(E6:N6)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="M6" s="1">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
         <v>4</v>
       </c>
-      <c r="O6" s="1">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3</v>
-      </c>
       <c r="I7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1">
         <v>4</v>
       </c>
       <c r="K7" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>7</v>
+      </c>
+      <c r="O7" s="1">
+        <f>SUM(E7:N7)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="E9" s="1" t="s">
-        <v>17</v>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <f>SUM(E8:N8)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
         <v>2</v>
@@ -3241,304 +4631,457 @@
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M9" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N9" s="1">
         <v>2</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="O10" s="11" t="s">
+      <c r="O9" s="1">
+        <f>SUM(E9:N9)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="1">
+        <f>SUM(O6,O7,O8,O9)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="19"/>
+    </row>
+    <row r="27" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="O11" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="H28" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="S28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P28" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="32">
         <v>23</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F29" s="32">
         <v>2</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
+        <v>79</v>
+      </c>
+      <c r="H29" s="31">
+        <v>0</v>
+      </c>
+      <c r="I29" s="31">
+        <v>0</v>
+      </c>
+      <c r="J29" s="31">
+        <v>0</v>
+      </c>
+      <c r="K29" s="31">
+        <v>0</v>
+      </c>
+      <c r="L29" s="31">
+        <v>0</v>
+      </c>
+      <c r="M29" s="31">
+        <v>0</v>
+      </c>
+      <c r="N29" s="31">
+        <v>2</v>
+      </c>
+      <c r="O29" s="31">
+        <v>2</v>
+      </c>
+      <c r="P29" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>0</v>
+      </c>
       <c r="R29" s="31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S29" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="33"/>
       <c r="B30" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="36" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
-      <c r="H30" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
+      <c r="H30" s="34">
+        <v>0</v>
+      </c>
+      <c r="I30" s="34">
+        <v>0</v>
+      </c>
+      <c r="J30" s="34">
+        <v>0</v>
+      </c>
+      <c r="K30" s="34">
+        <v>0</v>
+      </c>
+      <c r="L30" s="34">
+        <v>0</v>
+      </c>
+      <c r="M30" s="34">
+        <v>0</v>
+      </c>
+      <c r="N30" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="P30" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q30" s="34">
+        <v>0</v>
+      </c>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="33"/>
       <c r="B31" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="36" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
-      <c r="H31" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
+      <c r="H31" s="34">
+        <v>0</v>
+      </c>
+      <c r="I31" s="34">
+        <v>0</v>
+      </c>
+      <c r="J31" s="34">
+        <v>0</v>
+      </c>
+      <c r="K31" s="34">
+        <v>0</v>
+      </c>
+      <c r="L31" s="34">
+        <v>0</v>
+      </c>
+      <c r="M31" s="34">
+        <v>0</v>
+      </c>
+      <c r="N31" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="O31" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="P31" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="Q31" s="34">
+        <v>0</v>
+      </c>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="33"/>
       <c r="B32" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="36" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
+      <c r="H32" s="34">
+        <v>0</v>
+      </c>
+      <c r="I32" s="34">
+        <v>0</v>
+      </c>
+      <c r="J32" s="34">
+        <v>0</v>
+      </c>
+      <c r="K32" s="34">
+        <v>0</v>
+      </c>
+      <c r="L32" s="34">
+        <v>0</v>
+      </c>
+      <c r="M32" s="34">
+        <v>0</v>
+      </c>
+      <c r="N32" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="O32" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="P32" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q32" s="34">
+        <v>0</v>
+      </c>
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="36" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
+      <c r="H33" s="34">
+        <v>0</v>
+      </c>
+      <c r="I33" s="34">
+        <v>0</v>
+      </c>
+      <c r="J33" s="34">
+        <v>0</v>
+      </c>
+      <c r="K33" s="34">
+        <v>0</v>
+      </c>
+      <c r="L33" s="34">
+        <v>0</v>
+      </c>
+      <c r="M33" s="34">
+        <v>0</v>
+      </c>
+      <c r="N33" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="O33" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="Q33" s="34">
+        <v>0</v>
+      </c>
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="33"/>
       <c r="B34" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="36" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
+      <c r="H34" s="34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="O34" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="P34" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q34" s="34">
+        <v>0</v>
+      </c>
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="33"/>
       <c r="B35" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="36" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
+      <c r="H35" s="34">
+        <v>0</v>
+      </c>
+      <c r="I35" s="34">
+        <v>0</v>
+      </c>
+      <c r="J35" s="34">
+        <v>0</v>
+      </c>
+      <c r="K35" s="34">
+        <v>0</v>
+      </c>
+      <c r="L35" s="34">
+        <v>0</v>
+      </c>
+      <c r="M35" s="34">
+        <v>0</v>
+      </c>
+      <c r="N35" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="O35" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="P35" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q35" s="34">
+        <v>0</v>
+      </c>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -3559,181 +5102,311 @@
       <c r="R36" s="20"/>
       <c r="S36" s="20"/>
     </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="32">
         <v>21</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="32">
         <v>2</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
+        <v>79</v>
+      </c>
+      <c r="H37" s="31">
+        <v>0</v>
+      </c>
+      <c r="I37" s="31">
+        <v>0</v>
+      </c>
+      <c r="J37" s="31">
+        <v>0</v>
+      </c>
+      <c r="K37" s="31">
+        <v>0</v>
+      </c>
+      <c r="L37" s="31">
+        <v>0</v>
+      </c>
+      <c r="M37" s="31">
+        <v>0</v>
+      </c>
+      <c r="N37" s="31">
+        <v>2</v>
+      </c>
+      <c r="O37" s="31">
+        <v>2</v>
+      </c>
+      <c r="P37" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="31">
+        <v>0</v>
+      </c>
       <c r="R37" s="31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S37" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="33"/>
       <c r="B38" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
+      <c r="H38" s="34">
+        <v>0</v>
+      </c>
+      <c r="I38" s="34">
+        <v>0</v>
+      </c>
+      <c r="J38" s="34">
+        <v>0</v>
+      </c>
+      <c r="K38" s="34">
+        <v>0</v>
+      </c>
+      <c r="L38" s="34">
+        <v>0</v>
+      </c>
+      <c r="M38" s="34">
+        <v>0</v>
+      </c>
+      <c r="N38" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="O38" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q38" s="34">
+        <v>0</v>
+      </c>
       <c r="R38" s="33"/>
       <c r="S38" s="33"/>
     </row>
-    <row r="39" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="33"/>
       <c r="B39" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="36" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
+      <c r="H39" s="34">
+        <v>0</v>
+      </c>
+      <c r="I39" s="34">
+        <v>0</v>
+      </c>
+      <c r="J39" s="34">
+        <v>0</v>
+      </c>
+      <c r="K39" s="34">
+        <v>0</v>
+      </c>
+      <c r="L39" s="34">
+        <v>0</v>
+      </c>
+      <c r="M39" s="34">
+        <v>0</v>
+      </c>
+      <c r="N39" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="O39" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="P39" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q39" s="34">
+        <v>0</v>
+      </c>
       <c r="R39" s="33"/>
       <c r="S39" s="33"/>
     </row>
-    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="33"/>
       <c r="B40" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="36" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
+      <c r="H40" s="34">
+        <v>0</v>
+      </c>
+      <c r="I40" s="34">
+        <v>0</v>
+      </c>
+      <c r="J40" s="34">
+        <v>0</v>
+      </c>
+      <c r="K40" s="34">
+        <v>0</v>
+      </c>
+      <c r="L40" s="34">
+        <v>0</v>
+      </c>
+      <c r="M40" s="34">
+        <v>0</v>
+      </c>
+      <c r="N40" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="O40" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="P40" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q40" s="34">
+        <v>0</v>
+      </c>
       <c r="R40" s="33"/>
       <c r="S40" s="33"/>
     </row>
-    <row r="41" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="33"/>
       <c r="B41" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>50</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="36" t="s">
-        <v>52</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
+      <c r="H41" s="34">
+        <v>0</v>
+      </c>
+      <c r="I41" s="34">
+        <v>0</v>
+      </c>
+      <c r="J41" s="34">
+        <v>0</v>
+      </c>
+      <c r="K41" s="34">
+        <v>0</v>
+      </c>
+      <c r="L41" s="34">
+        <v>0</v>
+      </c>
+      <c r="M41" s="34">
+        <v>0</v>
+      </c>
+      <c r="N41" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="O41" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="P41" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="34">
+        <v>0</v>
+      </c>
       <c r="R41" s="33"/>
       <c r="S41" s="33"/>
     </row>
-    <row r="42" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="33"/>
       <c r="B42" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="36" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
+      <c r="H42" s="34">
+        <v>0</v>
+      </c>
+      <c r="I42" s="34">
+        <v>0</v>
+      </c>
+      <c r="J42" s="34">
+        <v>0</v>
+      </c>
+      <c r="K42" s="34">
+        <v>0</v>
+      </c>
+      <c r="L42" s="34">
+        <v>0</v>
+      </c>
+      <c r="M42" s="34">
+        <v>0</v>
+      </c>
+      <c r="N42" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="O42" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="P42" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q42" s="34">
+        <v>0</v>
+      </c>
       <c r="R42" s="33"/>
       <c r="S42" s="33"/>
     </row>
-    <row r="43" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -3754,181 +5427,311 @@
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
     </row>
-    <row r="44" spans="1:19" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="32">
         <v>22</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F44" s="32">
         <v>2</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
+        <v>15</v>
+      </c>
+      <c r="H44" s="31">
+        <v>0</v>
+      </c>
+      <c r="I44" s="31">
+        <v>0</v>
+      </c>
+      <c r="J44" s="31">
+        <v>0</v>
+      </c>
+      <c r="K44" s="31">
+        <v>0</v>
+      </c>
+      <c r="L44" s="31">
+        <v>0</v>
+      </c>
+      <c r="M44" s="31">
+        <v>0</v>
+      </c>
+      <c r="N44" s="31">
+        <v>0</v>
+      </c>
+      <c r="O44" s="31">
+        <v>0</v>
+      </c>
+      <c r="P44" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="31">
+        <v>0</v>
+      </c>
       <c r="R44" s="31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S44" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="33"/>
       <c r="B45" s="33" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="36" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
+      <c r="H45" s="34">
+        <v>0</v>
+      </c>
+      <c r="I45" s="34">
+        <v>0</v>
+      </c>
+      <c r="J45" s="34">
+        <v>0</v>
+      </c>
+      <c r="K45" s="34">
+        <v>0</v>
+      </c>
+      <c r="L45" s="34">
+        <v>0</v>
+      </c>
+      <c r="M45" s="34">
+        <v>0</v>
+      </c>
+      <c r="N45" s="34">
+        <v>0</v>
+      </c>
+      <c r="O45" s="34">
+        <v>0</v>
+      </c>
+      <c r="P45" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q45" s="34">
+        <v>0</v>
+      </c>
       <c r="R45" s="33"/>
       <c r="S45" s="33"/>
     </row>
-    <row r="46" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="33"/>
       <c r="B46" s="33" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="36" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
+      <c r="H46" s="34">
+        <v>0</v>
+      </c>
+      <c r="I46" s="34">
+        <v>0</v>
+      </c>
+      <c r="J46" s="34">
+        <v>0</v>
+      </c>
+      <c r="K46" s="34">
+        <v>0</v>
+      </c>
+      <c r="L46" s="34">
+        <v>0</v>
+      </c>
+      <c r="M46" s="34">
+        <v>0</v>
+      </c>
+      <c r="N46" s="34">
+        <v>0</v>
+      </c>
+      <c r="O46" s="34">
+        <v>0</v>
+      </c>
+      <c r="P46" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q46" s="34">
+        <v>0</v>
+      </c>
       <c r="R46" s="33"/>
       <c r="S46" s="33"/>
     </row>
-    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="33"/>
       <c r="B47" s="33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="36" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
+      <c r="H47" s="34">
+        <v>0</v>
+      </c>
+      <c r="I47" s="34">
+        <v>0</v>
+      </c>
+      <c r="J47" s="34">
+        <v>0</v>
+      </c>
+      <c r="K47" s="34">
+        <v>0</v>
+      </c>
+      <c r="L47" s="34">
+        <v>0</v>
+      </c>
+      <c r="M47" s="34">
+        <v>0</v>
+      </c>
+      <c r="N47" s="34">
+        <v>0</v>
+      </c>
+      <c r="O47" s="34">
+        <v>0</v>
+      </c>
+      <c r="P47" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="Q47" s="34">
+        <v>0</v>
+      </c>
       <c r="R47" s="33"/>
       <c r="S47" s="33"/>
     </row>
-    <row r="48" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="33"/>
       <c r="B48" s="33" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="36" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
+      <c r="H48" s="34">
+        <v>0</v>
+      </c>
+      <c r="I48" s="34">
+        <v>0</v>
+      </c>
+      <c r="J48" s="34">
+        <v>0</v>
+      </c>
+      <c r="K48" s="34">
+        <v>0</v>
+      </c>
+      <c r="L48" s="34">
+        <v>0</v>
+      </c>
+      <c r="M48" s="34">
+        <v>0</v>
+      </c>
+      <c r="N48" s="34">
+        <v>0</v>
+      </c>
+      <c r="O48" s="34">
+        <v>0</v>
+      </c>
+      <c r="P48" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q48" s="34">
+        <v>0</v>
+      </c>
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
     </row>
-    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="33"/>
       <c r="B49" s="33" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="36" t="s">
-        <v>52</v>
+        <v>70</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
+      <c r="H49" s="34">
+        <v>0</v>
+      </c>
+      <c r="I49" s="34">
+        <v>0</v>
+      </c>
+      <c r="J49" s="34">
+        <v>0</v>
+      </c>
+      <c r="K49" s="34">
+        <v>0</v>
+      </c>
+      <c r="L49" s="34">
+        <v>0</v>
+      </c>
+      <c r="M49" s="34">
+        <v>0</v>
+      </c>
+      <c r="N49" s="34">
+        <v>0</v>
+      </c>
+      <c r="O49" s="34">
+        <v>0</v>
+      </c>
+      <c r="P49" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="Q49" s="34">
+        <v>0</v>
+      </c>
       <c r="R49" s="33"/>
       <c r="S49" s="33"/>
     </row>
-    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -3949,9 +5752,9 @@
       <c r="R50" s="20"/>
       <c r="S50" s="20"/>
     </row>
-    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3959,22 +5762,42 @@
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
+      <c r="H51" s="36">
+        <v>12</v>
+      </c>
+      <c r="I51" s="36">
+        <v>12</v>
+      </c>
+      <c r="J51" s="36">
+        <v>12</v>
+      </c>
+      <c r="K51" s="36">
+        <v>12</v>
+      </c>
+      <c r="L51" s="36">
+        <v>12</v>
+      </c>
+      <c r="M51" s="36">
+        <v>12</v>
+      </c>
+      <c r="N51" s="36">
+        <v>12</v>
+      </c>
+      <c r="O51" s="36">
+        <v>12</v>
+      </c>
+      <c r="P51" s="36">
+        <v>12</v>
+      </c>
+      <c r="Q51" s="36">
+        <v>12</v>
+      </c>
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
     </row>
-    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -3982,22 +5805,42 @@
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
+      <c r="H52" s="37">
+        <v>12</v>
+      </c>
+      <c r="I52" s="37">
+        <v>12</v>
+      </c>
+      <c r="J52" s="37">
+        <v>12</v>
+      </c>
+      <c r="K52" s="37">
+        <v>12</v>
+      </c>
+      <c r="L52" s="37">
+        <v>12</v>
+      </c>
+      <c r="M52" s="37">
+        <v>12</v>
+      </c>
+      <c r="N52" s="37">
+        <v>12</v>
+      </c>
+      <c r="O52" s="37">
+        <v>8</v>
+      </c>
+      <c r="P52" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="37">
+        <v>0</v>
+      </c>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -4005,42 +5848,42 @@
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
-      <c r="H53" s="39">
+      <c r="H53" s="38">
         <v>6</v>
       </c>
-      <c r="I53" s="39">
+      <c r="I53" s="38">
         <v>6</v>
       </c>
-      <c r="J53" s="39">
+      <c r="J53" s="38">
         <v>6</v>
       </c>
-      <c r="K53" s="39">
+      <c r="K53" s="38">
         <v>6</v>
       </c>
-      <c r="L53" s="39">
+      <c r="L53" s="38">
         <v>6</v>
       </c>
-      <c r="M53" s="39">
+      <c r="M53" s="38">
         <v>6</v>
       </c>
-      <c r="N53" s="39">
+      <c r="N53" s="38">
+        <v>6</v>
+      </c>
+      <c r="O53" s="38">
         <v>4</v>
       </c>
-      <c r="O53" s="39">
+      <c r="P53" s="38">
         <v>2</v>
       </c>
-      <c r="P53" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="39">
+      <c r="Q53" s="38">
         <v>0</v>
       </c>
       <c r="R53" s="23"/>
       <c r="S53" s="23"/>
     </row>
-    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G54" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H54" s="12">
         <v>1</v>
@@ -4073,7 +5916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -4094,31 +5937,51 @@
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
     </row>
-    <row r="56" spans="1:19" ht="20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
+      <c r="H56" s="40">
+        <v>14</v>
+      </c>
+      <c r="I56" s="40">
+        <v>12.5</v>
+      </c>
+      <c r="J56" s="40">
+        <v>11</v>
+      </c>
+      <c r="K56" s="40">
+        <v>9.5</v>
+      </c>
+      <c r="L56" s="40">
+        <v>8</v>
+      </c>
+      <c r="M56" s="40">
+        <v>6.5</v>
+      </c>
+      <c r="N56" s="40">
+        <v>5</v>
+      </c>
+      <c r="O56" s="40">
+        <v>3.5</v>
+      </c>
+      <c r="P56" s="40">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="40">
+        <v>0</v>
+      </c>
       <c r="R56" s="20"/>
       <c r="S56" s="20"/>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -4138,157 +6001,88 @@
       <c r="R57" s="20"/>
       <c r="S57" s="20"/>
     </row>
-    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="29"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="20"/>
     </row>
-    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
       <c r="S59" s="20"/>
     </row>
-    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
       <c r="S60" s="20"/>
     </row>
-    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
       <c r="S61" s="20"/>
     </row>
-    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
       <c r="S62" s="20"/>
     </row>
-    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
       <c r="R63" s="20"/>
       <c r="S63" s="20"/>
     </row>
-    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
     </row>
-    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
     </row>
-    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
     </row>
-    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
     </row>
-    <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="30" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -4309,7 +6103,7 @@
       <c r="R69" s="20"/>
       <c r="S69" s="20"/>
     </row>
-    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -4330,7 +6124,7 @@
       <c r="R70" s="20"/>
       <c r="S70" s="20"/>
     </row>
-    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="29"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -4351,7 +6145,7 @@
       <c r="R71" s="20"/>
       <c r="S71" s="20"/>
     </row>
-    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -4372,7 +6166,7 @@
       <c r="R72" s="20"/>
       <c r="S72" s="20"/>
     </row>
-    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -4393,7 +6187,7 @@
       <c r="R73" s="20"/>
       <c r="S73" s="20"/>
     </row>
-    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -4414,9 +6208,9 @@
       <c r="R74" s="20"/>
       <c r="S74" s="20"/>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -4437,7 +6231,7 @@
       <c r="R75" s="20"/>
       <c r="S75" s="20"/>
     </row>
-    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -4458,7 +6252,7 @@
       <c r="R76" s="20"/>
       <c r="S76" s="20"/>
     </row>
-    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -4479,7 +6273,7 @@
       <c r="R77" s="20"/>
       <c r="S77" s="20"/>
     </row>
-    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -4500,7 +6294,7 @@
       <c r="R78" s="20"/>
       <c r="S78" s="20"/>
     </row>
-    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -4521,7 +6315,7 @@
       <c r="R79" s="20"/>
       <c r="S79" s="20"/>
     </row>
-    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -4542,7 +6336,7 @@
       <c r="R80" s="20"/>
       <c r="S80" s="20"/>
     </row>
-    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="29"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -4563,61 +6357,61 @@
       <c r="R81" s="20"/>
       <c r="S81" s="20"/>
     </row>
-    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="29"/>
     </row>
-    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
     </row>
-    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="29"/>
     </row>
-    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
     </row>
-    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
     </row>
-    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
     </row>
-    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
     </row>
-    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
     </row>
-    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
     </row>
-    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
     </row>
-    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
     </row>
-    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="29"/>
     </row>
-    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="29"/>
     </row>
-    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="29"/>
     </row>
-    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="29"/>
     </row>
-    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
     </row>
   </sheetData>
